--- a/Project _Sprint _Plan.xlsx
+++ b/Project _Sprint _Plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB6E9EE-68DC-4641-82D8-FC254F21C121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -88,12 +94,36 @@
   </si>
   <si>
     <t>Vishal</t>
+  </si>
+  <si>
+    <t>Allocated Module</t>
+  </si>
+  <si>
+    <t>Trip Selection</t>
+  </si>
+  <si>
+    <t>Trip commute</t>
+  </si>
+  <si>
+    <t>Feedback+payments</t>
+  </si>
+  <si>
+    <t>Cab allocation(driver side)</t>
+  </si>
+  <si>
+    <t>Login+Signup</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Cab allocation(customer side)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,13 +175,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +266,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,26 +510,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,25 +544,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -507,26 +578,29 @@
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -539,26 +613,29 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -572,25 +649,28 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -604,25 +684,28 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -636,25 +719,28 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -668,25 +754,28 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -700,21 +789,24 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -724,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -736,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
